--- a/TC02_LoginSchool/02_Data_LoginSchool.xlsx
+++ b/TC02_LoginSchool/02_Data_LoginSchool.xlsx
@@ -1,40 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test2\it\Project_Test_AcademicService\TC02_LoginSchool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4DF3A3-754A-4CED-9B60-94B7D575F006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TC02-EC" sheetId="1" r:id="rId1"/>
-    <sheet name="TC02-TC" sheetId="2" r:id="rId2"/>
+    <sheet name="TC02-EC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TC02-TC" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>${TCID}</t>
   </si>
@@ -524,130 +505,131 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="16">
     <font>
+      <name val="Tahoma"/>
+      <charset val="222"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <charset val="222"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Tahoma"/>
+      <charset val="222"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <charset val="222"/>
+      <family val="2"/>
       <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="TH Sarabun ps"/>
       <charset val="222"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <charset val="222"/>
+      <family val="2"/>
+      <color rgb="FF00B050"/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color rgb="FF00B050"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <charset val="222"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <charset val="222"/>
+      <family val="2"/>
+      <color theme="1" tint="0.0499893185216834"/>
       <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -659,13 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.1499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,278 +793,278 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="เปอร์เซ็นต์" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.5999633777886288"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1095,7 +1077,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -1105,18 +1087,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1">
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1416,29 +1390,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="60" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="80" customWidth="1"/>
-    <col min="11" max="11" width="25.9140625" style="84" customWidth="1"/>
+    <col width="10.4140625" customWidth="1" style="89" min="1" max="1"/>
+    <col width="41.6640625" customWidth="1" style="89" min="2" max="2"/>
+    <col width="24.75" customWidth="1" style="89" min="3" max="3"/>
+    <col width="23.33203125" customWidth="1" style="89" min="4" max="4"/>
+    <col width="21.33203125" customWidth="1" style="89" min="5" max="5"/>
+    <col width="27.33203125" customWidth="1" style="87" min="6" max="6"/>
+    <col width="20.5" customWidth="1" style="89" min="7" max="7"/>
+    <col width="18.1640625" customWidth="1" style="89" min="8" max="8"/>
+    <col width="13.1640625" customWidth="1" style="89" min="9" max="9"/>
+    <col width="13.25" customWidth="1" style="80" min="10" max="10"/>
+    <col width="25.9140625" customWidth="1" style="84" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34" customHeight="1">
+    <row r="1" spans="1:11" ht="34" customHeight="1" s="89">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="63" customHeight="1">
+    <row r="2" spans="1:11" ht="63" customHeight="1" s="89">
       <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
@@ -1508,7 +1486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="93.5" customHeight="1">
+    <row r="3" spans="1:11" ht="93.5" customHeight="1" s="89">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
@@ -1543,7 +1521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="104.5" customHeight="1">
+    <row r="4" spans="1:11" ht="104.5" customHeight="1" s="89">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -1578,7 +1556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="127" customHeight="1">
+    <row r="5" spans="1:11" ht="127" customHeight="1" s="89">
       <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
@@ -1613,7 +1591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="112.5" customHeight="1">
+    <row r="6" spans="1:11" ht="112.5" customHeight="1" s="89">
       <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
@@ -1648,7 +1626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="157" customHeight="1">
+    <row r="7" spans="1:11" ht="157" customHeight="1" s="89">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
@@ -1683,7 +1661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="72.5" customHeight="1">
+    <row r="8" spans="1:11" ht="72.5" customHeight="1" s="89">
       <c r="A8" s="14" t="s">
         <v>43</v>
       </c>
@@ -1711,14 +1689,14 @@
       <c r="I8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="79" t="s">
+      <c r="J8" s="91" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="46" customHeight="1">
+    <row r="9" spans="1:11" ht="46" customHeight="1" s="89">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -1746,14 +1724,14 @@
       <c r="I9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="91" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="75.5" customHeight="1">
+    <row r="10" spans="1:11" ht="75.5" customHeight="1" s="89">
       <c r="A10" s="14" t="s">
         <v>49</v>
       </c>
@@ -1781,14 +1759,14 @@
       <c r="I10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="J10" s="91" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="57" customHeight="1">
+    <row r="11" spans="1:11" ht="57" customHeight="1" s="89">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
@@ -1816,14 +1794,14 @@
       <c r="I11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="91" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="102.5" customHeight="1">
+    <row r="12" spans="1:11" ht="102.5" customHeight="1" s="89">
       <c r="A12" s="14" t="s">
         <v>55</v>
       </c>
@@ -1851,14 +1829,14 @@
       <c r="I12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="91" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="83" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="101.5" customHeight="1">
+    <row r="13" spans="1:11" ht="101.5" customHeight="1" s="89">
       <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
@@ -1886,14 +1864,14 @@
       <c r="I13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="79" t="s">
+      <c r="J13" s="91" t="s">
         <v>25</v>
       </c>
       <c r="K13" s="83" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="158.5" customHeight="1">
+    <row r="14" spans="1:11" ht="158.5" customHeight="1" s="89">
       <c r="A14" s="14" t="s">
         <v>63</v>
       </c>
@@ -1921,18 +1899,18 @@
       <c r="I14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="79" t="s">
+      <c r="J14" s="91" t="s">
         <v>25</v>
       </c>
       <c r="K14" s="83" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="120" customHeight="1">
+    <row r="15" spans="1:11" ht="120" customHeight="1" s="89">
       <c r="A15" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="36" t="n"/>
       <c r="C15" s="40" t="s">
         <v>13</v>
       </c>
@@ -1954,14 +1932,14 @@
       <c r="I15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="91" t="s">
         <v>25</v>
       </c>
       <c r="K15" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="45.5" customHeight="1">
+    <row r="16" spans="1:11" ht="45.5" customHeight="1" s="89">
       <c r="A16" s="40" t="s">
         <v>72</v>
       </c>
@@ -1989,15 +1967,15 @@
       <c r="I16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="79" t="s">
+      <c r="J16" s="91" t="s">
         <v>17</v>
       </c>
       <c r="K16" s="83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A17" s="32">
+    <row r="17" spans="1:11" ht="43.5" customHeight="1" s="89">
+      <c r="A17" s="32" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -2024,15 +2002,15 @@
       <c r="I17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="79" t="s">
+      <c r="J17" s="91" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="101.5" customHeight="1">
-      <c r="A18" s="32">
+    <row r="18" spans="1:11" ht="101.5" customHeight="1" s="89">
+      <c r="A18" s="32" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -2059,15 +2037,15 @@
       <c r="I18" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="91" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="83" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="52.5" customHeight="1">
-      <c r="A19" s="32">
+    <row r="19" spans="1:11" ht="52.5" customHeight="1" s="89">
+      <c r="A19" s="32" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="40" t="s">
@@ -2094,15 +2072,15 @@
       <c r="I19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="79" t="s">
+      <c r="J19" s="91" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="51" customHeight="1">
-      <c r="A20" s="32">
+    <row r="20" spans="1:11" ht="51" customHeight="1" s="89">
+      <c r="A20" s="32" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -2129,15 +2107,15 @@
       <c r="I20" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="79" t="s">
+      <c r="J20" s="91" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="61.5" customHeight="1">
-      <c r="A21" s="32">
+    <row r="21" spans="1:11" ht="61.5" customHeight="1" s="89">
+      <c r="A21" s="32" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="40" t="s">
@@ -2164,15 +2142,15 @@
       <c r="I21" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="79" t="s">
+      <c r="J21" s="91" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="47" customHeight="1">
-      <c r="A22" s="32">
+    <row r="22" spans="1:11" ht="47" customHeight="1" s="89">
+      <c r="A22" s="32" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="40" t="s">
@@ -2199,15 +2177,15 @@
       <c r="I22" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="91" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A23" s="32">
+    <row r="23" spans="1:11" ht="88.5" customHeight="1" s="89">
+      <c r="A23" s="32" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="40" t="s">
@@ -2234,15 +2212,15 @@
       <c r="I23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="79" t="s">
+      <c r="J23" s="91" t="s">
         <v>25</v>
       </c>
       <c r="K23" s="83" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="87.5" customHeight="1">
-      <c r="A24" s="32">
+    <row r="24" spans="1:11" ht="87.5" customHeight="1" s="89">
+      <c r="A24" s="32" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="40" t="s">
@@ -2269,15 +2247,15 @@
       <c r="I24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="79" t="s">
+      <c r="J24" s="91" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="83" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="78.5" customHeight="1">
-      <c r="A25" s="32">
+    <row r="25" spans="1:11" ht="78.5" customHeight="1" s="89">
+      <c r="A25" s="32" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -2304,15 +2282,15 @@
       <c r="I25" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="79" t="s">
+      <c r="J25" s="91" t="s">
         <v>25</v>
       </c>
       <c r="K25" s="83" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="70.5" customHeight="1">
-      <c r="A26" s="32">
+    <row r="26" spans="1:11" ht="70.5" customHeight="1" s="89">
+      <c r="A26" s="32" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="40" t="s">
@@ -2339,107 +2317,105 @@
       <c r="I26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="79" t="s">
+      <c r="J26" s="91" t="s">
         <v>25</v>
       </c>
       <c r="K26" s="83" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="37" customHeight="1"/>
-    <row r="28" spans="1:11" ht="30.5" customHeight="1"/>
-    <row r="29" spans="1:11" ht="35.5" customHeight="1"/>
-    <row r="30" spans="1:11" ht="44.5" customHeight="1">
+    <row r="27" spans="1:11" ht="37" customHeight="1" s="89"/>
+    <row r="28" spans="1:11" ht="30.5" customHeight="1" s="89"/>
+    <row r="29" spans="1:11" ht="35.5" customHeight="1" s="89"/>
+    <row r="30" spans="1:11" ht="44.5" customHeight="1" s="89">
       <c r="E30" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="86" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="34" customHeight="1">
+    <row r="31" spans="1:11" ht="34" customHeight="1" s="89">
       <c r="E31" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="88">
         <f>COUNTIF(H2:H26, "Pass")</f>
-        <v>11</v>
+        <v/>
       </c>
       <c r="G31" s="77">
         <f>F31*100/F33</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="33" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="33" customHeight="1" s="89">
       <c r="E32" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="88">
         <f>COUNTIF(H2:H26, "FAIL")</f>
-        <v>14</v>
+        <v/>
       </c>
       <c r="G32" s="56">
         <f>F32*100/F33</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" ht="36.5" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="36.5" customHeight="1" s="89">
       <c r="E33" s="44" t="s">
         <v>104</v>
       </c>
       <c r="F33" s="57">
         <f>SUM(F31:F32)</f>
-        <v>25</v>
-      </c>
-      <c r="G33" s="55">
+        <v/>
+      </c>
+      <c r="G33" s="55" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="5:7" ht="23" customHeight="1">
+    <row r="36" spans="1:11" ht="23" customHeight="1" s="89">
       <c r="E36" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="87"/>
-      <c r="G36" s="54" t="s">
+      <c r="G36" s="86" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="5:7" ht="24.5" customHeight="1">
+    <row r="37" spans="1:11" ht="24.5" customHeight="1" s="89">
       <c r="E37" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="88">
         <f>COUNTIF(J2:J26, "PASS")</f>
-        <v>11</v>
+        <v/>
       </c>
       <c r="G37" s="77">
         <f>F37*100/F39</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" ht="25.5" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="25.5" customHeight="1" s="89">
       <c r="E38" s="44" t="s">
         <v>103</v>
       </c>
       <c r="F38" s="57">
         <f>COUNTIF(J2:J26,"FAIL")</f>
-        <v>14</v>
+        <v/>
       </c>
       <c r="G38" s="56">
         <f>F38*100/F39</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" ht="36.5" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="36.5" customHeight="1" s="89">
       <c r="E39" s="44" t="s">
         <v>104</v>
       </c>
       <c r="F39" s="78">
         <f>SUM(F37+F38)</f>
-        <v>25</v>
-      </c>
-      <c r="G39" s="55">
+        <v/>
+      </c>
+      <c r="G39" s="55" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2449,33 +2425,33 @@
     <mergeCell ref="E36:F36"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="1">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="0">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B9" r:id="rId4" display="sch1@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B14" r:id="rId9" display="w_@gmail.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C18" r:id="rId12" display="123456789!_1899@" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C19" r:id="rId13" display="123456789!_1899@" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C20" r:id="rId14" display="123456789!_1899@" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C23" r:id="rId17" display="123456789!_1899@" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C25" r:id="rId18" display="123456789!_1899@" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C26" r:id="rId19" display="123456789!_1899@" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" display="sch1@gmail.com" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" display="w_@gmail.com" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C17" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="123456789!_1899@" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C19" display="123456789!_1899@" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C20" display="123456789!_1899@" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C22" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C23" display="123456789!_1899@" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C25" display="123456789!_1899@" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C26" display="123456789!_1899@" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -2483,20 +2459,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="77" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="27.4140625" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="37.25" customWidth="1"/>
-    <col min="5" max="5" width="28.25" customWidth="1"/>
-    <col min="6" max="6" width="20.9140625" customWidth="1"/>
+    <col width="27.4140625" customWidth="1" style="89" min="2" max="2"/>
+    <col width="27.75" customWidth="1" style="89" min="3" max="3"/>
+    <col width="37.25" customWidth="1" style="89" min="4" max="4"/>
+    <col width="28.25" customWidth="1" style="89" min="5" max="5"/>
+    <col width="20.9140625" customWidth="1" style="89" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2519,8 +2499,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A2" s="9">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" s="89">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2532,26 +2512,25 @@
       <c r="D2" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="n"/>
       <c r="F2" s="91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="16"/>
+    <row r="3" spans="1:6" ht="34.5" customHeight="1" s="89">
+      <c r="A3" s="10" t="n"/>
+      <c r="B3" s="16" t="n"/>
       <c r="C3" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="89"/>
+      <c r="E3" s="11" t="n"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="12" t="n"/>
       <c r="C4" s="12" t="s">
         <v>117</v>
       </c>
@@ -2561,11 +2540,10 @@
       <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="89"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="7" t="n"/>
+      <c r="B5" s="12" t="n"/>
       <c r="C5" s="12" t="s">
         <v>119</v>
       </c>
@@ -2575,33 +2553,30 @@
       <c r="E5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="89"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="12" t="n"/>
       <c r="C6" t="s">
         <v>121</v>
       </c>
       <c r="D6" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="89"/>
-    </row>
-    <row r="7" spans="1:6" ht="19" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="13"/>
+      <c r="E6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:6" ht="19" customHeight="1" s="89">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="13" t="n"/>
       <c r="C7" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="89"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E7" s="6" t="n"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
@@ -2614,26 +2589,25 @@
       <c r="D8" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="n"/>
       <c r="F8" s="91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42.5" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="16"/>
+    <row r="9" spans="1:6" ht="42.5" customHeight="1" s="89">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="16" t="n"/>
       <c r="C9" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="89"/>
+      <c r="E9" s="11" t="n"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="12" t="n"/>
       <c r="C10" s="12" t="s">
         <v>117</v>
       </c>
@@ -2643,11 +2617,10 @@
       <c r="E10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="89"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="12" t="n"/>
       <c r="C11" s="12" t="s">
         <v>119</v>
       </c>
@@ -2657,33 +2630,30 @@
       <c r="E11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="89"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="12" t="n"/>
       <c r="C12" t="s">
         <v>121</v>
       </c>
       <c r="D12" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="89"/>
+      <c r="E12" s="5" t="n"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="8" t="n"/>
+      <c r="B13" s="13" t="n"/>
       <c r="C13" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="89"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E13" s="6" t="n"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2696,26 +2666,25 @@
       <c r="D14" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="n"/>
       <c r="F14" s="90" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="16"/>
+    <row r="15" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="16" t="n"/>
       <c r="C15" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="89"/>
+      <c r="E15" s="11" t="n"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="7" t="n"/>
+      <c r="B16" s="12" t="n"/>
       <c r="C16" s="12" t="s">
         <v>117</v>
       </c>
@@ -2725,11 +2694,10 @@
       <c r="E16" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="89"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="12" t="n"/>
       <c r="C17" s="12" t="s">
         <v>119</v>
       </c>
@@ -2739,33 +2707,30 @@
       <c r="E17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="89"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="7" t="n"/>
+      <c r="B18" s="12" t="n"/>
       <c r="C18" t="s">
         <v>121</v>
       </c>
       <c r="D18" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="89"/>
+      <c r="E18" s="5" t="n"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="13" t="n"/>
       <c r="C19" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="89"/>
-    </row>
-    <row r="20" spans="1:6" ht="26.5" customHeight="1">
+      <c r="E19" s="6" t="n"/>
+    </row>
+    <row r="20" spans="1:6" ht="26.5" customHeight="1" s="89">
       <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
@@ -2778,26 +2743,25 @@
       <c r="D20" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="n"/>
       <c r="F20" s="90" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="16"/>
+    <row r="21" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="16" t="n"/>
       <c r="C21" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="89"/>
+      <c r="E21" s="11" t="n"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="7" t="n"/>
+      <c r="B22" s="12" t="n"/>
       <c r="C22" s="12" t="s">
         <v>117</v>
       </c>
@@ -2807,11 +2771,10 @@
       <c r="E22" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="89"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="7" t="n"/>
+      <c r="B23" s="12" t="n"/>
       <c r="C23" s="12" t="s">
         <v>119</v>
       </c>
@@ -2821,33 +2784,30 @@
       <c r="E23" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="89"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="7" t="n"/>
+      <c r="B24" s="12" t="n"/>
       <c r="C24" t="s">
         <v>121</v>
       </c>
       <c r="D24" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="89"/>
+      <c r="E24" s="5" t="n"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="8"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="13" t="n"/>
       <c r="C25" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="89"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E25" s="6" t="n"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A26" s="9" t="s">
         <v>35</v>
       </c>
@@ -2860,26 +2820,25 @@
       <c r="D26" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="n"/>
       <c r="F26" s="90" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="16"/>
+    <row r="27" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A27" s="10" t="n"/>
+      <c r="B27" s="16" t="n"/>
       <c r="C27" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="89"/>
+      <c r="E27" s="11" t="n"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="7" t="n"/>
+      <c r="B28" s="12" t="n"/>
       <c r="C28" s="12" t="s">
         <v>117</v>
       </c>
@@ -2889,11 +2848,10 @@
       <c r="E28" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="89"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="7"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="7" t="n"/>
+      <c r="B29" s="12" t="n"/>
       <c r="C29" s="12" t="s">
         <v>119</v>
       </c>
@@ -2903,33 +2861,30 @@
       <c r="E29" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="89"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="7"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="7" t="n"/>
+      <c r="B30" s="12" t="n"/>
       <c r="C30" t="s">
         <v>121</v>
       </c>
       <c r="D30" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="89"/>
+      <c r="E30" s="5" t="n"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="8"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="8" t="n"/>
+      <c r="B31" s="13" t="n"/>
       <c r="C31" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="89"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E31" s="6" t="n"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A32" s="9" t="s">
         <v>38</v>
       </c>
@@ -2942,26 +2897,25 @@
       <c r="D32" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="n"/>
       <c r="F32" s="90" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="16"/>
+    <row r="33" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A33" s="10" t="n"/>
+      <c r="B33" s="16" t="n"/>
       <c r="C33" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="89"/>
+      <c r="E33" s="11" t="n"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="7"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="7" t="n"/>
+      <c r="B34" s="12" t="n"/>
       <c r="C34" s="12" t="s">
         <v>117</v>
       </c>
@@ -2971,11 +2925,10 @@
       <c r="E34" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="89"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="7"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="7" t="n"/>
+      <c r="B35" s="12" t="n"/>
       <c r="C35" s="12" t="s">
         <v>119</v>
       </c>
@@ -2985,33 +2938,30 @@
       <c r="E35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="89"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="7"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="7" t="n"/>
+      <c r="B36" s="12" t="n"/>
       <c r="C36" t="s">
         <v>121</v>
       </c>
       <c r="D36" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="89"/>
-    </row>
-    <row r="37" spans="1:6" ht="29.5" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="13"/>
+      <c r="E36" s="5" t="n"/>
+    </row>
+    <row r="37" spans="1:6" ht="29.5" customHeight="1" s="89">
+      <c r="A37" s="8" t="n"/>
+      <c r="B37" s="13" t="n"/>
       <c r="C37" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="89"/>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E37" s="6" t="n"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -3024,26 +2974,25 @@
       <c r="D38" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="n"/>
       <c r="F38" s="91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="16"/>
+    <row r="39" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A39" s="10" t="n"/>
+      <c r="B39" s="16" t="n"/>
       <c r="C39" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="89"/>
+      <c r="E39" s="11" t="n"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="7"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="7" t="n"/>
+      <c r="B40" s="12" t="n"/>
       <c r="C40" s="12" t="s">
         <v>117</v>
       </c>
@@ -3053,11 +3002,10 @@
       <c r="E40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="89"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="7"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="7" t="n"/>
+      <c r="B41" s="12" t="n"/>
       <c r="C41" s="12" t="s">
         <v>119</v>
       </c>
@@ -3067,33 +3015,30 @@
       <c r="E41" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="89"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="7"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="7" t="n"/>
+      <c r="B42" s="12" t="n"/>
       <c r="C42" t="s">
         <v>121</v>
       </c>
       <c r="D42" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="89"/>
+      <c r="E42" s="5" t="n"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="8"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="8" t="n"/>
+      <c r="B43" s="13" t="n"/>
       <c r="C43" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="89"/>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E43" s="6" t="n"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A44" s="9" t="s">
         <v>46</v>
       </c>
@@ -3106,26 +3051,25 @@
       <c r="D44" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="n"/>
       <c r="F44" s="91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="16"/>
+    <row r="45" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A45" s="10" t="n"/>
+      <c r="B45" s="16" t="n"/>
       <c r="C45" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="89"/>
+      <c r="E45" s="11" t="n"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="7"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="7" t="n"/>
+      <c r="B46" s="12" t="n"/>
       <c r="C46" s="12" t="s">
         <v>117</v>
       </c>
@@ -3135,11 +3079,10 @@
       <c r="E46" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="89"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="7"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="7" t="n"/>
+      <c r="B47" s="12" t="n"/>
       <c r="C47" s="12" t="s">
         <v>119</v>
       </c>
@@ -3149,33 +3092,30 @@
       <c r="E47" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="89"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="7"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="7" t="n"/>
+      <c r="B48" s="12" t="n"/>
       <c r="C48" t="s">
         <v>121</v>
       </c>
       <c r="D48" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="89"/>
+      <c r="E48" s="5" t="n"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="8"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="8" t="n"/>
+      <c r="B49" s="13" t="n"/>
       <c r="C49" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="89"/>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E49" s="6" t="n"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
@@ -3188,26 +3128,25 @@
       <c r="D50" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4" t="n"/>
       <c r="F50" s="91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="16"/>
+    <row r="51" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A51" s="10" t="n"/>
+      <c r="B51" s="16" t="n"/>
       <c r="C51" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="89"/>
-    </row>
-    <row r="52" spans="1:6" ht="42" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="12"/>
+      <c r="E51" s="11" t="n"/>
+    </row>
+    <row r="52" spans="1:6" ht="42" customHeight="1" s="89">
+      <c r="A52" s="7" t="n"/>
+      <c r="B52" s="12" t="n"/>
       <c r="C52" s="12" t="s">
         <v>117</v>
       </c>
@@ -3217,11 +3156,10 @@
       <c r="E52" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="89"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="7"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="7" t="n"/>
+      <c r="B53" s="12" t="n"/>
       <c r="C53" s="12" t="s">
         <v>119</v>
       </c>
@@ -3231,33 +3169,30 @@
       <c r="E53" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="89"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="7"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="7" t="n"/>
+      <c r="B54" s="12" t="n"/>
       <c r="C54" t="s">
         <v>121</v>
       </c>
       <c r="D54" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="89"/>
+      <c r="E54" s="5" t="n"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="8"/>
-      <c r="B55" s="13"/>
+      <c r="A55" s="8" t="n"/>
+      <c r="B55" s="13" t="n"/>
       <c r="C55" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="89"/>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E55" s="6" t="n"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A56" s="9" t="s">
         <v>52</v>
       </c>
@@ -3270,26 +3205,25 @@
       <c r="D56" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" s="4" t="n"/>
       <c r="F56" s="91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="16"/>
+    <row r="57" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A57" s="10" t="n"/>
+      <c r="B57" s="16" t="n"/>
       <c r="C57" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="89"/>
-    </row>
-    <row r="58" spans="1:6" ht="60.5" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="12"/>
+      <c r="E57" s="11" t="n"/>
+    </row>
+    <row r="58" spans="1:6" ht="60.5" customHeight="1" s="89">
+      <c r="A58" s="7" t="n"/>
+      <c r="B58" s="12" t="n"/>
       <c r="C58" s="12" t="s">
         <v>117</v>
       </c>
@@ -3299,11 +3233,10 @@
       <c r="E58" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="89"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="7"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="7" t="n"/>
+      <c r="B59" s="12" t="n"/>
       <c r="C59" s="12" t="s">
         <v>119</v>
       </c>
@@ -3313,33 +3246,30 @@
       <c r="E59" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="89"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="7"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="7" t="n"/>
+      <c r="B60" s="12" t="n"/>
       <c r="C60" t="s">
         <v>121</v>
       </c>
       <c r="D60" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="89"/>
+      <c r="E60" s="5" t="n"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="8"/>
-      <c r="B61" s="13"/>
+      <c r="A61" s="8" t="n"/>
+      <c r="B61" s="13" t="n"/>
       <c r="C61" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="89"/>
-    </row>
-    <row r="62" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E61" s="6" t="n"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A62" s="9" t="s">
         <v>55</v>
       </c>
@@ -3352,26 +3282,25 @@
       <c r="D62" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="4"/>
+      <c r="E62" s="4" t="n"/>
       <c r="F62" s="88" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="28" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="16"/>
+    <row r="63" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A63" s="10" t="n"/>
+      <c r="B63" s="16" t="n"/>
       <c r="C63" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="89"/>
+      <c r="E63" s="11" t="n"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="7"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="7" t="n"/>
+      <c r="B64" s="12" t="n"/>
       <c r="C64" s="12" t="s">
         <v>117</v>
       </c>
@@ -3381,11 +3310,10 @@
       <c r="E64" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F64" s="89"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="7"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="7" t="n"/>
+      <c r="B65" s="12" t="n"/>
       <c r="C65" s="12" t="s">
         <v>119</v>
       </c>
@@ -3395,33 +3323,30 @@
       <c r="E65" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="89"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="7"/>
-      <c r="B66" s="12"/>
+      <c r="A66" s="7" t="n"/>
+      <c r="B66" s="12" t="n"/>
       <c r="C66" t="s">
         <v>121</v>
       </c>
       <c r="D66" t="s">
         <v>122</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="89"/>
+      <c r="E66" s="5" t="n"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="8"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="8" t="n"/>
+      <c r="B67" s="13" t="n"/>
       <c r="C67" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="89"/>
-    </row>
-    <row r="68" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E67" s="6" t="n"/>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A68" s="9" t="s">
         <v>60</v>
       </c>
@@ -3434,26 +3359,25 @@
       <c r="D68" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="4" t="n"/>
       <c r="F68" s="88" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="B69" s="16"/>
+    <row r="69" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A69" s="10" t="n"/>
+      <c r="B69" s="16" t="n"/>
       <c r="C69" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D69" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="89"/>
-    </row>
-    <row r="70" spans="1:6" ht="42" customHeight="1">
-      <c r="A70" s="7"/>
-      <c r="B70" s="12"/>
+      <c r="E69" s="11" t="n"/>
+    </row>
+    <row r="70" spans="1:6" ht="42" customHeight="1" s="89">
+      <c r="A70" s="7" t="n"/>
+      <c r="B70" s="12" t="n"/>
       <c r="C70" s="12" t="s">
         <v>117</v>
       </c>
@@ -3463,11 +3387,10 @@
       <c r="E70" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F70" s="89"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="7"/>
-      <c r="B71" s="12"/>
+      <c r="A71" s="7" t="n"/>
+      <c r="B71" s="12" t="n"/>
       <c r="C71" s="12" t="s">
         <v>119</v>
       </c>
@@ -3477,33 +3400,30 @@
       <c r="E71" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="89"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="7"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="7" t="n"/>
+      <c r="B72" s="12" t="n"/>
       <c r="C72" t="s">
         <v>121</v>
       </c>
       <c r="D72" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="89"/>
+      <c r="E72" s="5" t="n"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="8"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="8" t="n"/>
+      <c r="B73" s="13" t="n"/>
       <c r="C73" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="89"/>
-    </row>
-    <row r="74" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E73" s="6" t="n"/>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A74" s="9" t="s">
         <v>63</v>
       </c>
@@ -3516,26 +3436,25 @@
       <c r="D74" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="E74" s="4" t="n"/>
       <c r="F74" s="88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="28" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="16"/>
+    <row r="75" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A75" s="10" t="n"/>
+      <c r="B75" s="16" t="n"/>
       <c r="C75" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D75" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="89"/>
-    </row>
-    <row r="76" spans="1:6" ht="28" customHeight="1">
-      <c r="A76" s="7"/>
-      <c r="B76" s="12"/>
+      <c r="E75" s="11" t="n"/>
+    </row>
+    <row r="76" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A76" s="7" t="n"/>
+      <c r="B76" s="12" t="n"/>
       <c r="C76" s="12" t="s">
         <v>117</v>
       </c>
@@ -3545,11 +3464,10 @@
       <c r="E76" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F76" s="89"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="7"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="7" t="n"/>
+      <c r="B77" s="12" t="n"/>
       <c r="C77" s="12" t="s">
         <v>119</v>
       </c>
@@ -3559,33 +3477,30 @@
       <c r="E77" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="89"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="7"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="7" t="n"/>
+      <c r="B78" s="12" t="n"/>
       <c r="C78" t="s">
         <v>121</v>
       </c>
       <c r="D78" t="s">
         <v>122</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="89"/>
+      <c r="E78" s="5" t="n"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="8"/>
-      <c r="B79" s="13"/>
+      <c r="A79" s="8" t="n"/>
+      <c r="B79" s="13" t="n"/>
       <c r="C79" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="89"/>
-    </row>
-    <row r="80" spans="1:6" ht="24.5" customHeight="1">
+      <c r="E79" s="6" t="n"/>
+    </row>
+    <row r="80" spans="1:6" ht="24.5" customHeight="1" s="89">
       <c r="A80" s="9" t="s">
         <v>68</v>
       </c>
@@ -3598,38 +3513,36 @@
       <c r="D80" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E80" s="4"/>
+      <c r="E80" s="4" t="n"/>
       <c r="F80" s="88" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A81" s="10"/>
-      <c r="B81" s="16"/>
+    <row r="81" spans="1:6" ht="28.5" customHeight="1" s="89">
+      <c r="A81" s="10" t="n"/>
+      <c r="B81" s="16" t="n"/>
       <c r="C81" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D81" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="89"/>
+      <c r="E81" s="11" t="n"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="7"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="7" t="n"/>
+      <c r="B82" s="12" t="n"/>
       <c r="C82" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E82" s="73"/>
-      <c r="F82" s="89"/>
+      <c r="E82" s="73" t="n"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="7"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="7" t="n"/>
+      <c r="B83" s="12" t="n"/>
       <c r="C83" s="12" t="s">
         <v>119</v>
       </c>
@@ -3639,33 +3552,30 @@
       <c r="E83" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="89"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="7"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="7" t="n"/>
+      <c r="B84" s="12" t="n"/>
       <c r="C84" t="s">
         <v>121</v>
       </c>
       <c r="D84" t="s">
         <v>122</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="89"/>
+      <c r="E84" s="5" t="n"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="8"/>
-      <c r="B85" s="13"/>
+      <c r="A85" s="8" t="n"/>
+      <c r="B85" s="13" t="n"/>
       <c r="C85" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="89"/>
-    </row>
-    <row r="86" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E85" s="6" t="n"/>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A86" s="9" t="s">
         <v>72</v>
       </c>
@@ -3678,26 +3588,25 @@
       <c r="D86" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E86" s="4"/>
+      <c r="E86" s="4" t="n"/>
       <c r="F86" s="88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="28" customHeight="1">
-      <c r="A87" s="10"/>
-      <c r="B87" s="16"/>
+    <row r="87" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A87" s="10" t="n"/>
+      <c r="B87" s="16" t="n"/>
       <c r="C87" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="89"/>
+      <c r="E87" s="11" t="n"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="7"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="7" t="n"/>
+      <c r="B88" s="12" t="n"/>
       <c r="C88" s="12" t="s">
         <v>117</v>
       </c>
@@ -3707,11 +3616,10 @@
       <c r="E88" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="89"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="7"/>
-      <c r="B89" s="12"/>
+      <c r="A89" s="7" t="n"/>
+      <c r="B89" s="12" t="n"/>
       <c r="C89" s="12" t="s">
         <v>119</v>
       </c>
@@ -3721,33 +3629,30 @@
       <c r="E89" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F89" s="89"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="7"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="7" t="n"/>
+      <c r="B90" s="12" t="n"/>
       <c r="C90" t="s">
         <v>121</v>
       </c>
       <c r="D90" t="s">
         <v>122</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="89"/>
+      <c r="E90" s="5" t="n"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="8"/>
-      <c r="B91" s="13"/>
+      <c r="A91" s="8" t="n"/>
+      <c r="B91" s="13" t="n"/>
       <c r="C91" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="89"/>
-    </row>
-    <row r="92" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E91" s="6" t="n"/>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A92" s="9" t="s">
         <v>130</v>
       </c>
@@ -3760,26 +3665,25 @@
       <c r="D92" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E92" s="4"/>
+      <c r="E92" s="4" t="n"/>
       <c r="F92" s="88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="28" customHeight="1">
-      <c r="A93" s="10"/>
-      <c r="B93" s="16"/>
+    <row r="93" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A93" s="10" t="n"/>
+      <c r="B93" s="16" t="n"/>
       <c r="C93" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D93" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="89"/>
+      <c r="E93" s="11" t="n"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="7"/>
-      <c r="B94" s="12"/>
+      <c r="A94" s="7" t="n"/>
+      <c r="B94" s="12" t="n"/>
       <c r="C94" s="12" t="s">
         <v>117</v>
       </c>
@@ -3789,11 +3693,10 @@
       <c r="E94" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="89"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="7"/>
-      <c r="B95" s="12"/>
+      <c r="A95" s="7" t="n"/>
+      <c r="B95" s="12" t="n"/>
       <c r="C95" s="12" t="s">
         <v>119</v>
       </c>
@@ -3803,33 +3706,30 @@
       <c r="E95" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F95" s="89"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="7"/>
-      <c r="B96" s="12"/>
+      <c r="A96" s="7" t="n"/>
+      <c r="B96" s="12" t="n"/>
       <c r="C96" t="s">
         <v>121</v>
       </c>
       <c r="D96" t="s">
         <v>122</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="89"/>
+      <c r="E96" s="5" t="n"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="8"/>
-      <c r="B97" s="13"/>
+      <c r="A97" s="8" t="n"/>
+      <c r="B97" s="13" t="n"/>
       <c r="C97" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D97" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E97" s="6"/>
-      <c r="F97" s="89"/>
-    </row>
-    <row r="98" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E97" s="6" t="n"/>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A98" s="9" t="s">
         <v>131</v>
       </c>
@@ -3842,26 +3742,25 @@
       <c r="D98" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E98" s="4"/>
+      <c r="E98" s="4" t="n"/>
       <c r="F98" s="88" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="28" customHeight="1">
-      <c r="A99" s="10"/>
-      <c r="B99" s="16"/>
+    <row r="99" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A99" s="10" t="n"/>
+      <c r="B99" s="16" t="n"/>
       <c r="C99" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E99" s="11"/>
-      <c r="F99" s="89"/>
+      <c r="E99" s="11" t="n"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="7"/>
-      <c r="B100" s="12"/>
+      <c r="A100" s="7" t="n"/>
+      <c r="B100" s="12" t="n"/>
       <c r="C100" s="12" t="s">
         <v>117</v>
       </c>
@@ -3871,11 +3770,10 @@
       <c r="E100" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="89"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="7"/>
-      <c r="B101" s="12"/>
+      <c r="A101" s="7" t="n"/>
+      <c r="B101" s="12" t="n"/>
       <c r="C101" s="12" t="s">
         <v>119</v>
       </c>
@@ -3885,33 +3783,30 @@
       <c r="E101" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F101" s="89"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="7"/>
-      <c r="B102" s="12"/>
+      <c r="A102" s="7" t="n"/>
+      <c r="B102" s="12" t="n"/>
       <c r="C102" t="s">
         <v>121</v>
       </c>
       <c r="D102" t="s">
         <v>122</v>
       </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="89"/>
+      <c r="E102" s="5" t="n"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="8"/>
-      <c r="B103" s="13"/>
+      <c r="A103" s="8" t="n"/>
+      <c r="B103" s="13" t="n"/>
       <c r="C103" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D103" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="89"/>
-    </row>
-    <row r="104" spans="1:6" ht="17.5" customHeight="1">
+      <c r="E103" s="6" t="n"/>
+    </row>
+    <row r="104" spans="1:6" ht="17.5" customHeight="1" s="89">
       <c r="A104" s="9" t="s">
         <v>132</v>
       </c>
@@ -3924,26 +3819,25 @@
       <c r="D104" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E104" s="4"/>
+      <c r="E104" s="4" t="n"/>
       <c r="F104" s="88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="28" customHeight="1">
-      <c r="A105" s="10"/>
-      <c r="B105" s="16"/>
+    <row r="105" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A105" s="10" t="n"/>
+      <c r="B105" s="16" t="n"/>
       <c r="C105" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D105" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E105" s="11"/>
-      <c r="F105" s="89"/>
+      <c r="E105" s="11" t="n"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="7"/>
-      <c r="B106" s="12"/>
+      <c r="A106" s="7" t="n"/>
+      <c r="B106" s="12" t="n"/>
       <c r="C106" s="12" t="s">
         <v>117</v>
       </c>
@@ -3953,11 +3847,10 @@
       <c r="E106" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F106" s="89"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="7"/>
-      <c r="B107" s="12"/>
+      <c r="A107" s="7" t="n"/>
+      <c r="B107" s="12" t="n"/>
       <c r="C107" s="12" t="s">
         <v>119</v>
       </c>
@@ -3967,33 +3860,30 @@
       <c r="E107" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="89"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="7"/>
-      <c r="B108" s="12"/>
+      <c r="A108" s="7" t="n"/>
+      <c r="B108" s="12" t="n"/>
       <c r="C108" t="s">
         <v>121</v>
       </c>
       <c r="D108" t="s">
         <v>122</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="89"/>
+      <c r="E108" s="5" t="n"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="8"/>
-      <c r="B109" s="13"/>
+      <c r="A109" s="8" t="n"/>
+      <c r="B109" s="13" t="n"/>
       <c r="C109" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="89"/>
-    </row>
-    <row r="110" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E109" s="6" t="n"/>
+    </row>
+    <row r="110" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A110" s="9" t="s">
         <v>133</v>
       </c>
@@ -4006,26 +3896,25 @@
       <c r="D110" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E110" s="4"/>
+      <c r="E110" s="4" t="n"/>
       <c r="F110" s="88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="28" customHeight="1">
-      <c r="A111" s="10"/>
-      <c r="B111" s="16"/>
+    <row r="111" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A111" s="10" t="n"/>
+      <c r="B111" s="16" t="n"/>
       <c r="C111" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D111" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="89"/>
+      <c r="E111" s="11" t="n"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="7"/>
-      <c r="B112" s="12"/>
+      <c r="A112" s="7" t="n"/>
+      <c r="B112" s="12" t="n"/>
       <c r="C112" s="12" t="s">
         <v>117</v>
       </c>
@@ -4035,11 +3924,10 @@
       <c r="E112" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="89"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="7"/>
-      <c r="B113" s="12"/>
+      <c r="A113" s="7" t="n"/>
+      <c r="B113" s="12" t="n"/>
       <c r="C113" s="12" t="s">
         <v>119</v>
       </c>
@@ -4049,33 +3937,30 @@
       <c r="E113" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F113" s="89"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="7"/>
-      <c r="B114" s="12"/>
+      <c r="A114" s="7" t="n"/>
+      <c r="B114" s="12" t="n"/>
       <c r="C114" t="s">
         <v>121</v>
       </c>
       <c r="D114" t="s">
         <v>122</v>
       </c>
-      <c r="E114" s="5"/>
-      <c r="F114" s="89"/>
+      <c r="E114" s="5" t="n"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="8"/>
-      <c r="B115" s="13"/>
+      <c r="A115" s="8" t="n"/>
+      <c r="B115" s="13" t="n"/>
       <c r="C115" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="89"/>
-    </row>
-    <row r="116" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E115" s="6" t="n"/>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A116" s="9" t="s">
         <v>134</v>
       </c>
@@ -4088,26 +3973,25 @@
       <c r="D116" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E116" s="4"/>
+      <c r="E116" s="4" t="n"/>
       <c r="F116" s="88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="28" customHeight="1">
-      <c r="A117" s="10"/>
-      <c r="B117" s="16"/>
+    <row r="117" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A117" s="10" t="n"/>
+      <c r="B117" s="16" t="n"/>
       <c r="C117" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D117" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="89"/>
+      <c r="E117" s="11" t="n"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="7"/>
-      <c r="B118" s="12"/>
+      <c r="A118" s="7" t="n"/>
+      <c r="B118" s="12" t="n"/>
       <c r="C118" s="12" t="s">
         <v>117</v>
       </c>
@@ -4117,11 +4001,10 @@
       <c r="E118" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F118" s="89"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="7"/>
-      <c r="B119" s="12"/>
+      <c r="A119" s="7" t="n"/>
+      <c r="B119" s="12" t="n"/>
       <c r="C119" s="12" t="s">
         <v>119</v>
       </c>
@@ -4131,33 +4014,30 @@
       <c r="E119" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F119" s="89"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="7"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="7" t="n"/>
+      <c r="B120" s="12" t="n"/>
       <c r="C120" t="s">
         <v>121</v>
       </c>
       <c r="D120" t="s">
         <v>122</v>
       </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="89"/>
+      <c r="E120" s="5" t="n"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="8"/>
-      <c r="B121" s="13"/>
+      <c r="A121" s="8" t="n"/>
+      <c r="B121" s="13" t="n"/>
       <c r="C121" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="89"/>
-    </row>
-    <row r="122" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E121" s="6" t="n"/>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A122" s="9" t="s">
         <v>135</v>
       </c>
@@ -4170,26 +4050,25 @@
       <c r="D122" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E122" s="4"/>
+      <c r="E122" s="4" t="n"/>
       <c r="F122" s="88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="28" customHeight="1">
-      <c r="A123" s="10"/>
-      <c r="B123" s="16"/>
+    <row r="123" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A123" s="10" t="n"/>
+      <c r="B123" s="16" t="n"/>
       <c r="C123" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D123" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E123" s="11"/>
-      <c r="F123" s="89"/>
+      <c r="E123" s="11" t="n"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="7"/>
-      <c r="B124" s="12"/>
+      <c r="A124" s="7" t="n"/>
+      <c r="B124" s="12" t="n"/>
       <c r="C124" s="12" t="s">
         <v>117</v>
       </c>
@@ -4199,11 +4078,10 @@
       <c r="E124" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="89"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="7"/>
-      <c r="B125" s="12"/>
+      <c r="A125" s="7" t="n"/>
+      <c r="B125" s="12" t="n"/>
       <c r="C125" s="12" t="s">
         <v>119</v>
       </c>
@@ -4213,33 +4091,30 @@
       <c r="E125" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F125" s="89"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="7"/>
-      <c r="B126" s="12"/>
+      <c r="A126" s="7" t="n"/>
+      <c r="B126" s="12" t="n"/>
       <c r="C126" t="s">
         <v>121</v>
       </c>
       <c r="D126" t="s">
         <v>122</v>
       </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="89"/>
+      <c r="E126" s="5" t="n"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="8"/>
-      <c r="B127" s="13"/>
+      <c r="A127" s="8" t="n"/>
+      <c r="B127" s="13" t="n"/>
       <c r="C127" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E127" s="6"/>
-      <c r="F127" s="89"/>
-    </row>
-    <row r="128" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E127" s="6" t="n"/>
+    </row>
+    <row r="128" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A128" s="9" t="s">
         <v>136</v>
       </c>
@@ -4252,26 +4127,25 @@
       <c r="D128" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E128" s="4"/>
+      <c r="E128" s="4" t="n"/>
       <c r="F128" s="88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="28" customHeight="1">
-      <c r="A129" s="10"/>
-      <c r="B129" s="16"/>
+    <row r="129" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A129" s="10" t="n"/>
+      <c r="B129" s="16" t="n"/>
       <c r="C129" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="89"/>
+      <c r="E129" s="11" t="n"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="7"/>
-      <c r="B130" s="12"/>
+      <c r="A130" s="7" t="n"/>
+      <c r="B130" s="12" t="n"/>
       <c r="C130" s="12" t="s">
         <v>117</v>
       </c>
@@ -4281,11 +4155,10 @@
       <c r="E130" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="89"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="7"/>
-      <c r="B131" s="12"/>
+      <c r="A131" s="7" t="n"/>
+      <c r="B131" s="12" t="n"/>
       <c r="C131" s="12" t="s">
         <v>119</v>
       </c>
@@ -4295,33 +4168,30 @@
       <c r="E131" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F131" s="89"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="7"/>
-      <c r="B132" s="12"/>
+      <c r="A132" s="7" t="n"/>
+      <c r="B132" s="12" t="n"/>
       <c r="C132" t="s">
         <v>121</v>
       </c>
       <c r="D132" t="s">
         <v>122</v>
       </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="89"/>
+      <c r="E132" s="5" t="n"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="8"/>
-      <c r="B133" s="13"/>
+      <c r="A133" s="8" t="n"/>
+      <c r="B133" s="13" t="n"/>
       <c r="C133" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D133" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E133" s="6"/>
-      <c r="F133" s="89"/>
-    </row>
-    <row r="134" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E133" s="6" t="n"/>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A134" s="9" t="s">
         <v>138</v>
       </c>
@@ -4334,26 +4204,25 @@
       <c r="D134" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E134" s="4"/>
+      <c r="E134" s="4" t="n"/>
       <c r="F134" s="88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="28" customHeight="1">
-      <c r="A135" s="10"/>
-      <c r="B135" s="16"/>
+    <row r="135" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A135" s="10" t="n"/>
+      <c r="B135" s="16" t="n"/>
       <c r="C135" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E135" s="11"/>
-      <c r="F135" s="89"/>
+      <c r="E135" s="11" t="n"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="7"/>
-      <c r="B136" s="12"/>
+      <c r="A136" s="7" t="n"/>
+      <c r="B136" s="12" t="n"/>
       <c r="C136" s="12" t="s">
         <v>117</v>
       </c>
@@ -4363,11 +4232,10 @@
       <c r="E136" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F136" s="89"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="7"/>
-      <c r="B137" s="12"/>
+      <c r="A137" s="7" t="n"/>
+      <c r="B137" s="12" t="n"/>
       <c r="C137" s="12" t="s">
         <v>119</v>
       </c>
@@ -4377,33 +4245,30 @@
       <c r="E137" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F137" s="89"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="7"/>
-      <c r="B138" s="12"/>
+      <c r="A138" s="7" t="n"/>
+      <c r="B138" s="12" t="n"/>
       <c r="C138" t="s">
         <v>121</v>
       </c>
       <c r="D138" t="s">
         <v>122</v>
       </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="89"/>
+      <c r="E138" s="5" t="n"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="8"/>
-      <c r="B139" s="13"/>
+      <c r="A139" s="8" t="n"/>
+      <c r="B139" s="13" t="n"/>
       <c r="C139" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E139" s="6"/>
-      <c r="F139" s="89"/>
-    </row>
-    <row r="140" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E139" s="6" t="n"/>
+    </row>
+    <row r="140" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A140" s="9" t="s">
         <v>139</v>
       </c>
@@ -4416,26 +4281,25 @@
       <c r="D140" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E140" s="4"/>
+      <c r="E140" s="4" t="n"/>
       <c r="F140" s="88" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="28" customHeight="1">
-      <c r="A141" s="10"/>
-      <c r="B141" s="16"/>
+    <row r="141" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A141" s="10" t="n"/>
+      <c r="B141" s="16" t="n"/>
       <c r="C141" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D141" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E141" s="11"/>
-      <c r="F141" s="89"/>
+      <c r="E141" s="11" t="n"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="7"/>
-      <c r="B142" s="12"/>
+      <c r="A142" s="7" t="n"/>
+      <c r="B142" s="12" t="n"/>
       <c r="C142" s="12" t="s">
         <v>117</v>
       </c>
@@ -4445,11 +4309,10 @@
       <c r="E142" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F142" s="89"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="7"/>
-      <c r="B143" s="12"/>
+      <c r="A143" s="7" t="n"/>
+      <c r="B143" s="12" t="n"/>
       <c r="C143" s="12" t="s">
         <v>119</v>
       </c>
@@ -4459,33 +4322,30 @@
       <c r="E143" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F143" s="89"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="7"/>
-      <c r="B144" s="12"/>
+      <c r="A144" s="7" t="n"/>
+      <c r="B144" s="12" t="n"/>
       <c r="C144" t="s">
         <v>121</v>
       </c>
       <c r="D144" t="s">
         <v>122</v>
       </c>
-      <c r="E144" s="5"/>
-      <c r="F144" s="89"/>
+      <c r="E144" s="5" t="n"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="8"/>
-      <c r="B145" s="13"/>
+      <c r="A145" s="8" t="n"/>
+      <c r="B145" s="13" t="n"/>
       <c r="C145" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E145" s="6"/>
-      <c r="F145" s="89"/>
-    </row>
-    <row r="146" spans="1:6" ht="16.5" customHeight="1">
+      <c r="E145" s="6" t="n"/>
+    </row>
+    <row r="146" spans="1:6" ht="16.5" customHeight="1" s="89">
       <c r="A146" s="9" t="s">
         <v>141</v>
       </c>
@@ -4498,26 +4358,25 @@
       <c r="D146" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E146" s="4"/>
+      <c r="E146" s="4" t="n"/>
       <c r="F146" s="88" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="28" customHeight="1">
-      <c r="A147" s="10"/>
-      <c r="B147" s="16"/>
+    <row r="147" spans="1:6" ht="28" customHeight="1" s="89">
+      <c r="A147" s="10" t="n"/>
+      <c r="B147" s="16" t="n"/>
       <c r="C147" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D147" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E147" s="11"/>
-      <c r="F147" s="89"/>
+      <c r="E147" s="11" t="n"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="7"/>
-      <c r="B148" s="12"/>
+      <c r="A148" s="7" t="n"/>
+      <c r="B148" s="12" t="n"/>
       <c r="C148" s="12" t="s">
         <v>117</v>
       </c>
@@ -4527,43 +4386,39 @@
       <c r="E148" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="89"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="7"/>
-      <c r="B149" s="12"/>
+      <c r="A149" s="7" t="n"/>
+      <c r="B149" s="12" t="n"/>
       <c r="C149" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D149" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E149" s="74"/>
-      <c r="F149" s="89"/>
+      <c r="E149" s="74" t="n"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="7"/>
-      <c r="B150" s="12"/>
+      <c r="A150" s="7" t="n"/>
+      <c r="B150" s="12" t="n"/>
       <c r="C150" t="s">
         <v>121</v>
       </c>
       <c r="D150" t="s">
         <v>122</v>
       </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="89"/>
+      <c r="E150" s="5" t="n"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="8"/>
-      <c r="B151" s="13"/>
+      <c r="A151" s="8" t="n"/>
+      <c r="B151" s="13" t="n"/>
       <c r="C151" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D151" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E151" s="6"/>
-      <c r="F151" s="89"/>
+      <c r="E151" s="6" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -4594,30 +4449,30 @@
     <mergeCell ref="F134:F139"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E10" r:id="rId2" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E16" r:id="rId3" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E22" r:id="rId4" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E28" r:id="rId5" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E34" r:id="rId6" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="E40" r:id="rId7" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="E46" r:id="rId8" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E52" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="E58" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="E64" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="E70" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="E76" r:id="rId13" display="School_abatakamabcdghijk.lmnopqrstuvwxyz012345678_91localabatfgvn@gmail.com" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="E88" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="E94" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="E100" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="E106" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="E112" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="E118" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="E124" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="E130" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="E136" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="E142" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="E148" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E10" display="Sch_ool.1a@gmail.com" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E16" display="Sch_ool.1a@gmail.com" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E22" display="Sch_ool.1a@gmail.com" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E28" display="Sch_ool.1a@gmail.com" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E34" display="Sch_ool.1a@gmail.com" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E40" display="Sch_ool.1a@gmail.com" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E46" display="Sch_ool.1a@gmail.com" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E52" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E58" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E64" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E70" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E76" display="School_abatakamabcdghijk.lmnopqrstuvwxyz012345678_91localabatfgvn@gmail.com" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E88" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E94" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E100" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E106" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E112" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E118" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E124" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E130" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E136" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E142" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E148" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
